--- a/doc/schematic/PartsList.xlsx
+++ b/doc/schematic/PartsList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>C</t>
   </si>
@@ -708,162 +708,6 @@
     <t>http://akizukidenshi.com/catalog/g/gM-01804/</t>
   </si>
   <si>
-    <t>http://akizukidenshi.com/catalog/g/gC-05197/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-00934/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フェライトビーズ</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-04416/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-01948/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://eleshop.jp/shop/g/gT11641/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gI-06312/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>カーボン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1/4W</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.sengoku.co.jp/mod/sgk_cart/detail.php?code=2AJS-7UL6</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-00819/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03647/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03646/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03648/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03650/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gK-06693/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-00147/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クリスタル</t>
-    </r>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://eleshop.jp/shop/g/g74F312/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>IC Socket DIP 16P</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-00029/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>IC Socket DIP 28P</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-01339/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Heatsink</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-05152/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Universal Board</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>95x72mm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-03230/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TQFP44 pitch conversion board</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-05173/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin socket (long)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -908,30 +752,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>http://akizukidenshi.com/catalog/g/gC-05779/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin header (small)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gC-06631/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin socket (small)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gP-01591/</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AC adapter 12V 1A</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1082,6 +902,229 @@
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>0.047uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>積セラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本入り</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-05250/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-05197/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-00934/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フェライトビーズ</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-04416/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-01948/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://eleshop.jp/shop/g/gT11641/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-06312/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カーボン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1/4W</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.sengoku.co.jp/mod/sgk_cart/detail.php?code=2AJS-7UL6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00819/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03647/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03646/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03648/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03650/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gK-06693/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00147/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クリスタル</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://eleshop.jp/shop/g/g74F312/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC Socket DIP 16P</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00029/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC Socket DIP 28P</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-01339/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Heatsink</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-05152/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Universal Board</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>95x72mm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03230/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TQFP44 pitch conversion board</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-05173/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin socket (long)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-05779/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin header (small)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-06631/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin socket (small)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-01591/</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AC adapter 12V 1A</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1089,7 +1132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,6 +1350,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1818,12 +1868,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1858,6 +1902,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2216,7 +2266,7 @@
     <col min="1" max="1" width="2.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.5" style="1" bestFit="1" customWidth="1"/>
@@ -2228,37 +2278,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>112</v>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2268,30 +2318,30 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>100</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
         <f>H2*I2</f>
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2301,30 +2351,30 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>10</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J39" si="0">H3*I3</f>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J40" si="0">H3*I3</f>
         <v>20</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2334,30 +2384,30 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>90</v>
       </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2367,1143 +2417,1177 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="6">
+        <v>150</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6" si="1">H6*I6</f>
+        <v>150</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="17">
         <v>40</v>
       </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="L8" s="18" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="6">
         <v>100</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="L11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="6">
         <v>30</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <v>600</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="6">
         <v>600</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="L14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>31</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="L15" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>7805</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="6">
         <v>40</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="6">
         <v>10</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="6">
         <v>21</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
+      <c r="L18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>51</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="6">
         <v>10</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="6">
         <v>4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>120</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="6">
         <v>10</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="6">
         <v>2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="4">
         <v>220</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="6">
         <v>10</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="6">
         <v>3</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="6">
         <v>10</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="6">
         <v>2</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>45</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="6">
         <v>300</v>
       </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
+      <c r="L23" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="6">
         <v>10</v>
       </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
+      <c r="L24" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="6">
         <v>10</v>
       </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
+      <c r="L25" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="6">
         <v>10</v>
       </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+      <c r="L26" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="6">
         <v>10</v>
       </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
+      <c r="L27" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H28" s="6">
         <v>10</v>
       </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+      <c r="L28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="6">
         <v>800</v>
       </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5"/>
-      <c r="B29" s="2" t="s">
+      <c r="L29" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="6">
         <v>40</v>
       </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
+      <c r="L30" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="6">
         <v>120</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="L31" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="8">
         <v>30</v>
       </c>
-      <c r="I31" s="10">
-        <v>1</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="L32" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="8">
         <v>70</v>
       </c>
-      <c r="I32" s="10">
-        <v>1</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
+      <c r="L33" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="8">
         <v>50</v>
       </c>
-      <c r="I33" s="10">
-        <v>1</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="L34" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="8">
         <v>120</v>
       </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10" t="s">
+      <c r="L35" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="8">
         <v>100</v>
       </c>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I36" s="8">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="L36" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="8">
         <v>80</v>
       </c>
-      <c r="I36" s="10">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
+      <c r="L37" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="8">
         <v>40</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="8">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L38" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="10">
-        <v>100</v>
-      </c>
-      <c r="I38" s="10">
+      <c r="I39" s="8">
         <v>2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="8">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="L39" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8">
         <v>600</v>
       </c>
-      <c r="I39" s="10">
-        <v>1</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L40" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="18">
-        <f>SUM(J2:J39)</f>
-        <v>4642</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="16">
+        <f>SUM(J2:J40)</f>
+        <v>4792</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="J8:J10"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="L31" r:id="rId1"/>
+    <hyperlink ref="L32" r:id="rId1"/>
     <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="L36" r:id="rId3"/>
+    <hyperlink ref="L37" r:id="rId3"/>
     <hyperlink ref="L3" r:id="rId4"/>
     <hyperlink ref="L4" r:id="rId5"/>
     <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="L6" r:id="rId7"/>
-    <hyperlink ref="L7" r:id="rId8"/>
-    <hyperlink ref="L10" r:id="rId9"/>
-    <hyperlink ref="L12" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L15" r:id="rId12"/>
-    <hyperlink ref="L17" r:id="rId13"/>
-    <hyperlink ref="L22" r:id="rId14"/>
-    <hyperlink ref="L23" r:id="rId15"/>
-    <hyperlink ref="L24" r:id="rId16"/>
-    <hyperlink ref="L25" r:id="rId17"/>
-    <hyperlink ref="L26" r:id="rId18"/>
-    <hyperlink ref="L27" r:id="rId19"/>
-    <hyperlink ref="L28" r:id="rId20"/>
-    <hyperlink ref="L29" r:id="rId21"/>
-    <hyperlink ref="L30" r:id="rId22"/>
-    <hyperlink ref="L32" r:id="rId23"/>
-    <hyperlink ref="L33" r:id="rId24"/>
-    <hyperlink ref="L34" r:id="rId25"/>
-    <hyperlink ref="L35" r:id="rId26"/>
-    <hyperlink ref="L37" r:id="rId27"/>
-    <hyperlink ref="L38" r:id="rId28"/>
-    <hyperlink ref="L14" r:id="rId29"/>
+    <hyperlink ref="L7" r:id="rId7"/>
+    <hyperlink ref="L8" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L13" r:id="rId10"/>
+    <hyperlink ref="L14" r:id="rId11"/>
+    <hyperlink ref="L16" r:id="rId12"/>
+    <hyperlink ref="L18" r:id="rId13"/>
+    <hyperlink ref="L23" r:id="rId14"/>
+    <hyperlink ref="L24" r:id="rId15"/>
+    <hyperlink ref="L25" r:id="rId16"/>
+    <hyperlink ref="L26" r:id="rId17"/>
+    <hyperlink ref="L27" r:id="rId18"/>
+    <hyperlink ref="L28" r:id="rId19"/>
+    <hyperlink ref="L29" r:id="rId20"/>
+    <hyperlink ref="L30" r:id="rId21"/>
+    <hyperlink ref="L31" r:id="rId22"/>
+    <hyperlink ref="L33" r:id="rId23"/>
+    <hyperlink ref="L34" r:id="rId24"/>
+    <hyperlink ref="L35" r:id="rId25"/>
+    <hyperlink ref="L36" r:id="rId26"/>
+    <hyperlink ref="L38" r:id="rId27"/>
+    <hyperlink ref="L39" r:id="rId28"/>
+    <hyperlink ref="L15" r:id="rId29"/>
+    <hyperlink ref="L6" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>